--- a/Eagle/P6/P6/P6_BOM.xlsx
+++ b/Eagle/P6/P6/P6_BOM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="58">
   <si>
     <t>Designator</t>
   </si>
@@ -125,12 +125,6 @@
     <t>EVQ-P7A01P</t>
   </si>
   <si>
-    <t>U$34, U$35</t>
-  </si>
-  <si>
-    <t>FIDUCIAL</t>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -146,9 +140,6 @@
     <t>U1</t>
   </si>
   <si>
-    <t>MDBT40</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>IC2</t>
   </si>
   <si>
-    <t>MS5611-01BA03</t>
-  </si>
-  <si>
     <t>CHG</t>
   </si>
   <si>
@@ -207,6 +195,9 @@
   </si>
   <si>
     <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>MS561101BA03-50</t>
   </si>
 </sst>
 </file>
@@ -247,12 +238,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,7 +769,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -793,8 +787,8 @@
       <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
+      <c r="B20" s="3">
+        <v>317030026</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -802,10 +796,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
         <v>39</v>
-      </c>
-      <c r="B21" t="s">
-        <v>40</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -813,10 +807,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
         <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>42</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
@@ -824,10 +818,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -835,10 +829,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -846,10 +840,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="1">
         <v>1</v>
@@ -857,32 +851,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="1">
         <v>1</v>
@@ -890,10 +884,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -901,27 +895,20 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" s="2">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B20" r:id="rId1" display="https://www.mouser.com/ProductDetail/Seeed-Studio/317030026?qs=sGAEpiMZZMsGelYiB%252bjhZuSe2l%2fDNpp5yc6q%2fDWaXa86w9cacFjgag%3d%3d"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>